--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Garage</t>
+  </si>
+  <si>
+    <t>Flat</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,6 +797,130 @@
         <v>798</v>
       </c>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>119.1052631578947</v>
+      </c>
+      <c r="E16">
+        <v>32676315.78947368</v>
+      </c>
+      <c r="F16">
+        <v>296798.3356605554</v>
+      </c>
+      <c r="G16">
+        <v>486.8421052631579</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>115.8809523809524</v>
+      </c>
+      <c r="E17">
+        <v>25552380.95238095</v>
+      </c>
+      <c r="F17">
+        <v>228041.7572974148</v>
+      </c>
+      <c r="G17">
+        <v>181.5</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>65.3952380952381</v>
+      </c>
+      <c r="E18">
+        <v>27610738.0952381</v>
+      </c>
+      <c r="F18">
+        <v>426755.1999621868</v>
+      </c>
+      <c r="H18">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>17.75</v>
+      </c>
+      <c r="E19">
+        <v>4148100</v>
+      </c>
+      <c r="F19">
+        <v>240649.1567228772</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>163.6563658838072</v>
+      </c>
+      <c r="E20">
+        <v>56148529.04820766</v>
+      </c>
+      <c r="F20">
+        <v>979818.0885652011</v>
+      </c>
+      <c r="G20">
+        <v>460.5908529048208</v>
+      </c>
+      <c r="H20">
+        <v>809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,6 +921,130 @@
         <v>809</v>
       </c>
     </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>116.2941176470588</v>
+      </c>
+      <c r="E21">
+        <v>32385294.11764706</v>
+      </c>
+      <c r="F21">
+        <v>296691.8471062569</v>
+      </c>
+      <c r="G21">
+        <v>468</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>103.9</v>
+      </c>
+      <c r="E22">
+        <v>23926000</v>
+      </c>
+      <c r="F22">
+        <v>232894.34794284</v>
+      </c>
+      <c r="G22">
+        <v>179.0333333333333</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>65.48168892718655</v>
+      </c>
+      <c r="E23">
+        <v>27897462.30073244</v>
+      </c>
+      <c r="F23">
+        <v>429922.6476606705</v>
+      </c>
+      <c r="H23">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>17.88607594936709</v>
+      </c>
+      <c r="E24">
+        <v>4128101.265822785</v>
+      </c>
+      <c r="F24">
+        <v>239682.3778796598</v>
+      </c>
+      <c r="H24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>166.7172413793103</v>
+      </c>
+      <c r="E25">
+        <v>58262137.93103448</v>
+      </c>
+      <c r="F25">
+        <v>1062076.207434499</v>
+      </c>
+      <c r="G25">
+        <v>458.5724137931035</v>
+      </c>
+      <c r="H25">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,6 +1045,130 @@
         <v>725</v>
       </c>
     </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>117.8947368421053</v>
+      </c>
+      <c r="E26">
+        <v>31534210.52631579</v>
+      </c>
+      <c r="F26">
+        <v>286977.7856535269</v>
+      </c>
+      <c r="G26">
+        <v>487.8421052631579</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>116.0476190476191</v>
+      </c>
+      <c r="E27">
+        <v>25809285.71428571</v>
+      </c>
+      <c r="F27">
+        <v>227524.8763449687</v>
+      </c>
+      <c r="G27">
+        <v>182.3333333333333</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>65.22601110229976</v>
+      </c>
+      <c r="E28">
+        <v>27675800.95162569</v>
+      </c>
+      <c r="F28">
+        <v>429061.6478807137</v>
+      </c>
+      <c r="H28">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>17.78723404255319</v>
+      </c>
+      <c r="E29">
+        <v>4096276.595744681</v>
+      </c>
+      <c r="F29">
+        <v>238789.2744698202</v>
+      </c>
+      <c r="H29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>43857</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>165.0303413400759</v>
+      </c>
+      <c r="E30">
+        <v>56663097.34513275</v>
+      </c>
+      <c r="F30">
+        <v>995188.1217986668</v>
+      </c>
+      <c r="G30">
+        <v>462.9064475347661</v>
+      </c>
+      <c r="H30">
+        <v>791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,6 +1169,130 @@
         <v>791</v>
       </c>
     </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>111.2105263157895</v>
+      </c>
+      <c r="E31">
+        <v>31810526.31578947</v>
+      </c>
+      <c r="F31">
+        <v>296274.0228043503</v>
+      </c>
+      <c r="G31">
+        <v>442.8421052631579</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>119.0769230769231</v>
+      </c>
+      <c r="E32">
+        <v>26881794.87179487</v>
+      </c>
+      <c r="F32">
+        <v>232956.2770894534</v>
+      </c>
+      <c r="G32">
+        <v>178.3333333333333</v>
+      </c>
+      <c r="H32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>65.23768230193141</v>
+      </c>
+      <c r="E33">
+        <v>27781517.54040205</v>
+      </c>
+      <c r="F33">
+        <v>430674.2979047467</v>
+      </c>
+      <c r="H33">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>17.74444444444444</v>
+      </c>
+      <c r="E34">
+        <v>4066555.555555556</v>
+      </c>
+      <c r="F34">
+        <v>237999.2939809196</v>
+      </c>
+      <c r="H34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>162.2299872935197</v>
+      </c>
+      <c r="E35">
+        <v>56492528.58958068</v>
+      </c>
+      <c r="F35">
+        <v>998859.8434031494</v>
+      </c>
+      <c r="G35">
+        <v>460.5451080050826</v>
+      </c>
+      <c r="H35">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,6 +1293,130 @@
         <v>787</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>116.5</v>
+      </c>
+      <c r="E36">
+        <v>33261111.11111111</v>
+      </c>
+      <c r="F36">
+        <v>295361.4768525123</v>
+      </c>
+      <c r="G36">
+        <v>408.5555555555555</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>119.5789473684211</v>
+      </c>
+      <c r="E37">
+        <v>26839210.52631579</v>
+      </c>
+      <c r="F37">
+        <v>231520.6127829304</v>
+      </c>
+      <c r="G37">
+        <v>161.9736842105263</v>
+      </c>
+      <c r="H37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>65.28704061895552</v>
+      </c>
+      <c r="E38">
+        <v>27695957.44680851</v>
+      </c>
+      <c r="F38">
+        <v>429343.4522750814</v>
+      </c>
+      <c r="H38">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>17.80898876404494</v>
+      </c>
+      <c r="E39">
+        <v>4106067.415730337</v>
+      </c>
+      <c r="F39">
+        <v>239627.1327644508</v>
+      </c>
+      <c r="H39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>161.1025641025641</v>
+      </c>
+      <c r="E40">
+        <v>56215091.57509158</v>
+      </c>
+      <c r="F40">
+        <v>975259.1762124375</v>
+      </c>
+      <c r="G40">
+        <v>461.8058608058608</v>
+      </c>
+      <c r="H40">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,6 +1417,130 @@
         <v>819</v>
       </c>
     </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>118.6111111111111</v>
+      </c>
+      <c r="E41">
+        <v>33427777.77777778</v>
+      </c>
+      <c r="F41">
+        <v>293949.0124226268</v>
+      </c>
+      <c r="G41">
+        <v>456.6666666666667</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>122.195652173913</v>
+      </c>
+      <c r="E42">
+        <v>30513043.47826087</v>
+      </c>
+      <c r="F42">
+        <v>252347.6429129347</v>
+      </c>
+      <c r="G42">
+        <v>188.695652173913</v>
+      </c>
+      <c r="H42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>65.29935336629897</v>
+      </c>
+      <c r="E43">
+        <v>27734195.51160137</v>
+      </c>
+      <c r="F43">
+        <v>429678.0137904867</v>
+      </c>
+      <c r="H43">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>17.84883720930232</v>
+      </c>
+      <c r="E44">
+        <v>4094418.604651163</v>
+      </c>
+      <c r="F44">
+        <v>238277.1941556224</v>
+      </c>
+      <c r="H44">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>160.8886255924171</v>
+      </c>
+      <c r="E45">
+        <v>56989075.82938389</v>
+      </c>
+      <c r="F45">
+        <v>962381.9145821189</v>
+      </c>
+      <c r="G45">
+        <v>474.3495260663507</v>
+      </c>
+      <c r="H45">
+        <v>844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1541,6 +1541,130 @@
         <v>844</v>
       </c>
     </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>113.9523809523809</v>
+      </c>
+      <c r="E46">
+        <v>32504761.9047619</v>
+      </c>
+      <c r="F46">
+        <v>297108.8422290832</v>
+      </c>
+      <c r="G46">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>124.0434782608696</v>
+      </c>
+      <c r="E47">
+        <v>31247826.08695652</v>
+      </c>
+      <c r="F47">
+        <v>256713.5014583163</v>
+      </c>
+      <c r="G47">
+        <v>186.1304347826087</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>65.36236802413273</v>
+      </c>
+      <c r="E48">
+        <v>27795294.11764706</v>
+      </c>
+      <c r="F48">
+        <v>430149.585414995</v>
+      </c>
+      <c r="H48">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>17.8735632183908</v>
+      </c>
+      <c r="E49">
+        <v>4076666.666666667</v>
+      </c>
+      <c r="F49">
+        <v>236729.6876833363</v>
+      </c>
+      <c r="H49">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>161.1928143712575</v>
+      </c>
+      <c r="E50">
+        <v>56704275.4491018</v>
+      </c>
+      <c r="F50">
+        <v>966101.795882744</v>
+      </c>
+      <c r="G50">
+        <v>473.9053892215569</v>
+      </c>
+      <c r="H50">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1665,6 +1665,130 @@
         <v>835</v>
       </c>
     </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>113.8095238095238</v>
+      </c>
+      <c r="E51">
+        <v>31133333.33333333</v>
+      </c>
+      <c r="F51">
+        <v>287581.7671387243</v>
+      </c>
+      <c r="G51">
+        <v>464.8095238095238</v>
+      </c>
+      <c r="H51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>122.4047619047619</v>
+      </c>
+      <c r="E52">
+        <v>30370238.0952381</v>
+      </c>
+      <c r="F52">
+        <v>251363.0346858636</v>
+      </c>
+      <c r="G52">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>65.29819277108433</v>
+      </c>
+      <c r="E53">
+        <v>27861588.85542169</v>
+      </c>
+      <c r="F53">
+        <v>431660.3488087555</v>
+      </c>
+      <c r="H53">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>17.68965517241379</v>
+      </c>
+      <c r="E54">
+        <v>3981839.08045977</v>
+      </c>
+      <c r="F54">
+        <v>233766.3635384706</v>
+      </c>
+      <c r="H54">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>162.2271062271062</v>
+      </c>
+      <c r="E55">
+        <v>56672832.72283272</v>
+      </c>
+      <c r="F55">
+        <v>974787.8027311168</v>
+      </c>
+      <c r="G55">
+        <v>466.4029304029304</v>
+      </c>
+      <c r="H55">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1789,6 +1789,130 @@
         <v>819</v>
       </c>
     </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>121.7727272727273</v>
+      </c>
+      <c r="E56">
+        <v>32486363.63636364</v>
+      </c>
+      <c r="F56">
+        <v>277789.8744635007</v>
+      </c>
+      <c r="G56">
+        <v>1160.181818181818</v>
+      </c>
+      <c r="H56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>123.4222222222222</v>
+      </c>
+      <c r="E57">
+        <v>29647777.77777778</v>
+      </c>
+      <c r="F57">
+        <v>242901.6697857484</v>
+      </c>
+      <c r="G57">
+        <v>6354.555555555556</v>
+      </c>
+      <c r="H57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>65.25805243445693</v>
+      </c>
+      <c r="E58">
+        <v>27770235.95505618</v>
+      </c>
+      <c r="F58">
+        <v>430551.9482292368</v>
+      </c>
+      <c r="H58">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>17.61363636363636</v>
+      </c>
+      <c r="E59">
+        <v>4019545.454545455</v>
+      </c>
+      <c r="F59">
+        <v>238222.2735765158</v>
+      </c>
+      <c r="H59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>170.3748488512697</v>
+      </c>
+      <c r="E60">
+        <v>56290217.65417171</v>
+      </c>
+      <c r="F60">
+        <v>363089.9764999037</v>
+      </c>
+      <c r="G60">
+        <v>897.956469165659</v>
+      </c>
+      <c r="H60">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1913,6 +1913,130 @@
         <v>827</v>
       </c>
     </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>118.5909090909091</v>
+      </c>
+      <c r="E61">
+        <v>31263636.36363636</v>
+      </c>
+      <c r="F61">
+        <v>275838.0028057466</v>
+      </c>
+      <c r="G61">
+        <v>1164.727272727273</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>124.7857142857143</v>
+      </c>
+      <c r="E62">
+        <v>30529761.9047619</v>
+      </c>
+      <c r="F62">
+        <v>249382.7577572784</v>
+      </c>
+      <c r="G62">
+        <v>6361.023809523809</v>
+      </c>
+      <c r="H62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>64.94579008073818</v>
+      </c>
+      <c r="E63">
+        <v>27486116.8781238</v>
+      </c>
+      <c r="F63">
+        <v>429333.9871057009</v>
+      </c>
+      <c r="H63">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>17.6551724137931</v>
+      </c>
+      <c r="E64">
+        <v>4006091.954022989</v>
+      </c>
+      <c r="F64">
+        <v>236833.134411276</v>
+      </c>
+      <c r="H64">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>169.5164034021871</v>
+      </c>
+      <c r="E65">
+        <v>55906622.11421628</v>
+      </c>
+      <c r="F65">
+        <v>363656.4351024135</v>
+      </c>
+      <c r="G65">
+        <v>884.1190765492103</v>
+      </c>
+      <c r="H65">
+        <v>823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Averages/averages.xlsx
+++ b/Averages/averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="14">
   <si>
     <t>city</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2037,6 +2037,502 @@
         <v>823</v>
       </c>
     </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>118.9565217391304</v>
+      </c>
+      <c r="E66">
+        <v>31747826.08695652</v>
+      </c>
+      <c r="F66">
+        <v>277742.9414902071</v>
+      </c>
+      <c r="G66">
+        <v>1138.869565217391</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>114.6571428571429</v>
+      </c>
+      <c r="E67">
+        <v>24971428.57142857</v>
+      </c>
+      <c r="F67">
+        <v>234244.7032357967</v>
+      </c>
+      <c r="G67">
+        <v>8271.171428571428</v>
+      </c>
+      <c r="H67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>65.04609475032011</v>
+      </c>
+      <c r="E68">
+        <v>27458924.45582587</v>
+      </c>
+      <c r="F68">
+        <v>429838.7020797757</v>
+      </c>
+      <c r="H68">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>17.59756097560976</v>
+      </c>
+      <c r="E69">
+        <v>4012926.829268293</v>
+      </c>
+      <c r="F69">
+        <v>237410.9806099671</v>
+      </c>
+      <c r="H69">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>162.8300907911803</v>
+      </c>
+      <c r="E70">
+        <v>56380233.46303502</v>
+      </c>
+      <c r="F70">
+        <v>367047.8780271861</v>
+      </c>
+      <c r="G70">
+        <v>898.5590142671855</v>
+      </c>
+      <c r="H70">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>125.2777777777778</v>
+      </c>
+      <c r="E71">
+        <v>34344444.44444445</v>
+      </c>
+      <c r="F71">
+        <v>282138.3405087984</v>
+      </c>
+      <c r="G71">
+        <v>1301.388888888889</v>
+      </c>
+      <c r="H71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>110.037037037037</v>
+      </c>
+      <c r="E72">
+        <v>24947407.40740741</v>
+      </c>
+      <c r="F72">
+        <v>237814.9244008549</v>
+      </c>
+      <c r="G72">
+        <v>12370.92592592593</v>
+      </c>
+      <c r="H72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>65.44829199812821</v>
+      </c>
+      <c r="E73">
+        <v>27814141.31960693</v>
+      </c>
+      <c r="F73">
+        <v>432499.7213995798</v>
+      </c>
+      <c r="H73">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>17.5</v>
+      </c>
+      <c r="E74">
+        <v>4128939.393939394</v>
+      </c>
+      <c r="F74">
+        <v>245891.0334419607</v>
+      </c>
+      <c r="H74">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>161.4068554396423</v>
+      </c>
+      <c r="E75">
+        <v>56900312.9657228</v>
+      </c>
+      <c r="F75">
+        <v>374836.654936936</v>
+      </c>
+      <c r="G75">
+        <v>894.4485842026826</v>
+      </c>
+      <c r="H75">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>120.4</v>
+      </c>
+      <c r="E76">
+        <v>32875000</v>
+      </c>
+      <c r="F76">
+        <v>278674.7310760677</v>
+      </c>
+      <c r="G76">
+        <v>1241.25</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>110.037037037037</v>
+      </c>
+      <c r="E77">
+        <v>24947407.40740741</v>
+      </c>
+      <c r="F77">
+        <v>237814.9244008549</v>
+      </c>
+      <c r="G77">
+        <v>12370.92592592593</v>
+      </c>
+      <c r="H77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>64.96103263516805</v>
+      </c>
+      <c r="E78">
+        <v>27668304.91962981</v>
+      </c>
+      <c r="F78">
+        <v>433229.3126621516</v>
+      </c>
+      <c r="H78">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>17.61428571428571</v>
+      </c>
+      <c r="E79">
+        <v>4124142.857142857</v>
+      </c>
+      <c r="F79">
+        <v>244744.5957033272</v>
+      </c>
+      <c r="H79">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>160.996996996997</v>
+      </c>
+      <c r="E80">
+        <v>56593123.12312312</v>
+      </c>
+      <c r="F80">
+        <v>374837.5097625489</v>
+      </c>
+      <c r="G80">
+        <v>897.6186186186186</v>
+      </c>
+      <c r="H80">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>110.8235294117647</v>
+      </c>
+      <c r="E81">
+        <v>34117647.05882353</v>
+      </c>
+      <c r="F81">
+        <v>300821.4203493571</v>
+      </c>
+      <c r="G81">
+        <v>1273.058823529412</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>107.5333333333333</v>
+      </c>
+      <c r="E82">
+        <v>22921333.33333333</v>
+      </c>
+      <c r="F82">
+        <v>218656.4297962673</v>
+      </c>
+      <c r="G82">
+        <v>11440.7</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>65.56278229448961</v>
+      </c>
+      <c r="E83">
+        <v>27820031.61698284</v>
+      </c>
+      <c r="F83">
+        <v>430605.8464244637</v>
+      </c>
+      <c r="H83">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>17.53658536585366</v>
+      </c>
+      <c r="E84">
+        <v>4106463.414634146</v>
+      </c>
+      <c r="F84">
+        <v>244701.2385894736</v>
+      </c>
+      <c r="H84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>160.1327913279133</v>
+      </c>
+      <c r="E85">
+        <v>56175609.75609756</v>
+      </c>
+      <c r="F85">
+        <v>369922.1449856661</v>
+      </c>
+      <c r="G85">
+        <v>858.2723577235772</v>
+      </c>
+      <c r="H85">
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
